--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H2">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I2">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J2">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>54.91513081250696</v>
+        <v>55.05774706785001</v>
       </c>
       <c r="R2">
-        <v>54.91513081250696</v>
+        <v>220.2309882714</v>
       </c>
       <c r="S2">
-        <v>0.02401245215845089</v>
+        <v>0.02063504970247669</v>
       </c>
       <c r="T2">
-        <v>0.02401245215845089</v>
+        <v>0.0106255309127689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H3">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I3">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J3">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>22.09419613656566</v>
+        <v>24.0938825459625</v>
       </c>
       <c r="R3">
-        <v>22.09419613656566</v>
+        <v>144.563295275775</v>
       </c>
       <c r="S3">
-        <v>0.009661013637936807</v>
+        <v>0.009030127281613572</v>
       </c>
       <c r="T3">
-        <v>0.009661013637936807</v>
+        <v>0.006974775779108482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H4">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I4">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J4">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>34.66537661861731</v>
+        <v>54.844593156325</v>
       </c>
       <c r="R4">
-        <v>34.66537661861731</v>
+        <v>329.06755893795</v>
       </c>
       <c r="S4">
-        <v>0.01515794800619232</v>
+        <v>0.02055516191569211</v>
       </c>
       <c r="T4">
-        <v>0.01515794800619232</v>
+        <v>0.01587659187895793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H5">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I5">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J5">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>99.80538925644446</v>
+        <v>100.7613004617675</v>
       </c>
       <c r="R5">
-        <v>99.80538925644446</v>
+        <v>604.567802770605</v>
       </c>
       <c r="S5">
-        <v>0.04364138078553243</v>
+        <v>0.0377642485180597</v>
       </c>
       <c r="T5">
-        <v>0.04364138078553243</v>
+        <v>0.02916871021478342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H6">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I6">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J6">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>24.01254443908125</v>
+        <v>25.267257445675</v>
       </c>
       <c r="R6">
-        <v>24.01254443908125</v>
+        <v>151.60354467405</v>
       </c>
       <c r="S6">
-        <v>0.01049983977120552</v>
+        <v>0.009469895537030339</v>
       </c>
       <c r="T6">
-        <v>0.01049983977120552</v>
+        <v>0.007314448175814011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H7">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I7">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J7">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>6.275571967921609</v>
+        <v>6.923651234688752</v>
       </c>
       <c r="R7">
-        <v>6.275571967921609</v>
+        <v>27.69460493875501</v>
       </c>
       <c r="S7">
-        <v>0.002744086546222211</v>
+        <v>0.002594909798513039</v>
       </c>
       <c r="T7">
-        <v>0.002744086546222211</v>
+        <v>0.001336187442118827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J8">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>390.5937024562957</v>
+        <v>418.9520358169734</v>
       </c>
       <c r="R8">
-        <v>390.5937024562957</v>
+        <v>2513.712214901841</v>
       </c>
       <c r="S8">
-        <v>0.1707928662802694</v>
+        <v>0.157018703859846</v>
       </c>
       <c r="T8">
-        <v>0.1707928662802694</v>
+        <v>0.1212796030880495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J9">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>157.1489267910714</v>
+        <v>183.33807104251</v>
       </c>
       <c r="R9">
-        <v>157.1489267910714</v>
+        <v>1650.04263938259</v>
       </c>
       <c r="S9">
-        <v>0.06871568965584762</v>
+        <v>0.06871313139014226</v>
       </c>
       <c r="T9">
-        <v>0.06871568965584762</v>
+        <v>0.07960995502840112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J10">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>246.56369929695</v>
+        <v>417.3300794178912</v>
       </c>
       <c r="R10">
-        <v>246.56369929695</v>
+        <v>3755.97071476102</v>
       </c>
       <c r="S10">
-        <v>0.1078136197761776</v>
+        <v>0.1564108120972378</v>
       </c>
       <c r="T10">
-        <v>0.1078136197761776</v>
+        <v>0.1812151107816223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J11">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>709.8837048729737</v>
+        <v>766.7250152462821</v>
       </c>
       <c r="R11">
-        <v>709.8837048729737</v>
+        <v>6900.525137216538</v>
       </c>
       <c r="S11">
-        <v>0.310407136414285</v>
+        <v>0.2873602651819704</v>
       </c>
       <c r="T11">
-        <v>0.310407136414285</v>
+        <v>0.3329310908303043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J12">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>170.793522642779</v>
+        <v>192.2666565584645</v>
       </c>
       <c r="R12">
-        <v>170.793522642779</v>
+        <v>1730.39990902618</v>
       </c>
       <c r="S12">
-        <v>0.07468199075106245</v>
+        <v>0.0720594689303886</v>
       </c>
       <c r="T12">
-        <v>0.07468199075106245</v>
+        <v>0.08348696915509364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J13">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>44.63612949134924</v>
+        <v>52.68428031544634</v>
       </c>
       <c r="R13">
-        <v>44.63612949134924</v>
+        <v>316.1056818926781</v>
       </c>
       <c r="S13">
-        <v>0.01951780698854921</v>
+        <v>0.01974549996585798</v>
       </c>
       <c r="T13">
-        <v>0.01951780698854921</v>
+        <v>0.01525121746497074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J14">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>24.37367728444184</v>
+        <v>0.1334118180933334</v>
       </c>
       <c r="R14">
-        <v>24.37367728444184</v>
+        <v>0.8004709085600001</v>
       </c>
       <c r="S14">
-        <v>0.01065775044252257</v>
+        <v>5.000131033079003E-05</v>
       </c>
       <c r="T14">
-        <v>0.01065775044252257</v>
+        <v>3.862048865346271E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J15">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>9.80634660291414</v>
+        <v>0.05838249559</v>
       </c>
       <c r="R15">
-        <v>9.80634660291414</v>
+        <v>0.5254424603100001</v>
       </c>
       <c r="S15">
-        <v>0.004287969912256564</v>
+        <v>2.188112958508167E-05</v>
       </c>
       <c r="T15">
-        <v>0.004287969912256564</v>
+        <v>2.535113313856154E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J16">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>15.38597268447884</v>
+        <v>0.1328953194644444</v>
       </c>
       <c r="R16">
-        <v>15.38597268447884</v>
+        <v>1.19605787518</v>
       </c>
       <c r="S16">
-        <v>0.006727743839101201</v>
+        <v>4.980773221606533E-05</v>
       </c>
       <c r="T16">
-        <v>0.006727743839101201</v>
+        <v>5.77064564162253E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H17">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I17">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J17">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>44.29788863273807</v>
+        <v>0.244157253138</v>
       </c>
       <c r="R17">
-        <v>44.29788863273807</v>
+        <v>2.197415278242</v>
       </c>
       <c r="S17">
-        <v>0.0193699061766006</v>
+        <v>9.150750479335867E-05</v>
       </c>
       <c r="T17">
-        <v>0.0193699061766006</v>
+        <v>0.0001060191581140136</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H18">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I18">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J18">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>10.65779140060226</v>
+        <v>0.06122572995777778</v>
       </c>
       <c r="R18">
-        <v>10.65779140060226</v>
+        <v>0.55103156962</v>
       </c>
       <c r="S18">
-        <v>0.004660276727655999</v>
+        <v>2.294674315663923E-05</v>
       </c>
       <c r="T18">
-        <v>0.004660276727655999</v>
+        <v>2.658573628927054E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H19">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I19">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J19">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N19">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O19">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P19">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q19">
-        <v>2.785366503881193</v>
+        <v>0.01677687425033333</v>
       </c>
       <c r="R19">
-        <v>2.785366503881193</v>
+        <v>0.100661245502</v>
       </c>
       <c r="S19">
-        <v>0.001217942649477692</v>
+        <v>6.287791499735779E-06</v>
       </c>
       <c r="T19">
-        <v>0.001217942649477692</v>
+        <v>4.856624329729802E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H20">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I20">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J20">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N20">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O20">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P20">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q20">
-        <v>49.57297711340977</v>
+        <v>24.78141798986001</v>
       </c>
       <c r="R20">
-        <v>49.57297711340977</v>
+        <v>148.68850793916</v>
       </c>
       <c r="S20">
-        <v>0.0216765165388011</v>
+        <v>0.009287808149658456</v>
       </c>
       <c r="T20">
-        <v>0.0216765165388011</v>
+        <v>0.007173805784016449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H21">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I21">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J21">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N21">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P21">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q21">
-        <v>19.94486880413124</v>
+        <v>10.844624165865</v>
       </c>
       <c r="R21">
-        <v>19.94486880413124</v>
+        <v>97.60161749278502</v>
       </c>
       <c r="S21">
-        <v>0.008721188511795467</v>
+        <v>0.004064448158249761</v>
       </c>
       <c r="T21">
-        <v>0.008721188511795467</v>
+        <v>0.004709005812242046</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H22">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I22">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J22">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N22">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O22">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P22">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q22">
-        <v>31.2931226115019</v>
+        <v>24.68547770063667</v>
       </c>
       <c r="R22">
-        <v>31.2931226115019</v>
+        <v>222.16929930573</v>
       </c>
       <c r="S22">
-        <v>0.01368338012637657</v>
+        <v>0.009251850764149134</v>
       </c>
       <c r="T22">
-        <v>0.01368338012637657</v>
+        <v>0.01071904901381131</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H23">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I23">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J23">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N23">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O23">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P23">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q23">
-        <v>90.09630322646602</v>
+        <v>45.352525973643</v>
       </c>
       <c r="R23">
-        <v>90.09630322646602</v>
+        <v>408.1727337627871</v>
       </c>
       <c r="S23">
-        <v>0.03939593949553293</v>
+        <v>0.0169976375249372</v>
       </c>
       <c r="T23">
-        <v>0.03939593949553293</v>
+        <v>0.01969319592300584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H24">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I24">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J24">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N24">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O24">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P24">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q24">
-        <v>21.67659984235532</v>
+        <v>11.37275863189667</v>
       </c>
       <c r="R24">
-        <v>21.67659984235532</v>
+        <v>102.35482768707</v>
       </c>
       <c r="S24">
-        <v>0.009478413489527642</v>
+        <v>0.004262387259221769</v>
       </c>
       <c r="T24">
-        <v>0.009478413489527642</v>
+        <v>0.004938334946396517</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.753043</v>
+      </c>
+      <c r="H25">
+        <v>11.259129</v>
+      </c>
+      <c r="I25">
+        <v>0.04503209727048742</v>
+      </c>
+      <c r="J25">
+        <v>0.04813551573843818</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.660693</v>
+      </c>
+      <c r="O25">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P25">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q25">
+        <v>3.116326119399501</v>
+      </c>
+      <c r="R25">
+        <v>18.69795671639701</v>
+      </c>
+      <c r="S25">
+        <v>0.001167965414271102</v>
+      </c>
+      <c r="T25">
+        <v>0.0009021242589660207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.7814465</v>
+      </c>
+      <c r="H26">
+        <v>15.562893</v>
+      </c>
+      <c r="I26">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J26">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.603020000000001</v>
+      </c>
+      <c r="N26">
+        <v>13.20604</v>
+      </c>
+      <c r="O26">
+        <v>0.2062486251499858</v>
+      </c>
+      <c r="P26">
+        <v>0.1490335290681818</v>
+      </c>
+      <c r="Q26">
+        <v>51.38104686843001</v>
+      </c>
+      <c r="R26">
+        <v>205.52418747372</v>
+      </c>
+      <c r="S26">
+        <v>0.0192570621276738</v>
+      </c>
+      <c r="T26">
+        <v>0.009915968794693541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.7814465</v>
+      </c>
+      <c r="H27">
+        <v>15.562893</v>
+      </c>
+      <c r="I27">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J27">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.889555</v>
+      </c>
+      <c r="N27">
+        <v>8.668665000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.09025669255057035</v>
+      </c>
+      <c r="P27">
+        <v>0.0978280951185844</v>
+      </c>
+      <c r="Q27">
+        <v>22.4849176413075</v>
+      </c>
+      <c r="R27">
+        <v>134.909505847845</v>
+      </c>
+      <c r="S27">
+        <v>0.008427104590979654</v>
+      </c>
+      <c r="T27">
+        <v>0.006509007365694188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.7814465</v>
+      </c>
+      <c r="H28">
+        <v>15.562893</v>
+      </c>
+      <c r="I28">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J28">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6.577456666666667</v>
+      </c>
+      <c r="N28">
+        <v>19.73237</v>
+      </c>
+      <c r="O28">
+        <v>0.2054501416751135</v>
+      </c>
+      <c r="P28">
+        <v>0.2226848273955795</v>
+      </c>
+      <c r="Q28">
+        <v>51.182127157735</v>
+      </c>
+      <c r="R28">
+        <v>307.09276294641</v>
+      </c>
+      <c r="S28">
+        <v>0.0191825091658184</v>
+      </c>
+      <c r="T28">
+        <v>0.0148163692647718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.7814465</v>
+      </c>
+      <c r="H29">
+        <v>15.562893</v>
+      </c>
+      <c r="I29">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J29">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.084201</v>
+      </c>
+      <c r="N29">
+        <v>36.252603</v>
+      </c>
+      <c r="O29">
+        <v>0.377456049245055</v>
+      </c>
+      <c r="P29">
+        <v>0.4091198696200947</v>
+      </c>
+      <c r="Q29">
+        <v>94.03256357674651</v>
+      </c>
+      <c r="R29">
+        <v>564.195381460479</v>
+      </c>
+      <c r="S29">
+        <v>0.0352423905152942</v>
+      </c>
+      <c r="T29">
+        <v>0.02722085349388715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="H25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="I25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="J25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.752647431851063</v>
-      </c>
-      <c r="N25">
-        <v>0.752647431851063</v>
-      </c>
-      <c r="O25">
-        <v>0.02595697750286922</v>
-      </c>
-      <c r="P25">
-        <v>0.02595697750286922</v>
-      </c>
-      <c r="Q25">
-        <v>5.66508320997172</v>
-      </c>
-      <c r="R25">
-        <v>5.66508320997172</v>
-      </c>
-      <c r="S25">
-        <v>0.00247714131862011</v>
-      </c>
-      <c r="T25">
-        <v>0.00247714131862011</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.7814465</v>
+      </c>
+      <c r="H30">
+        <v>15.562893</v>
+      </c>
+      <c r="I30">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J30">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.030276666666667</v>
+      </c>
+      <c r="N30">
+        <v>9.09083</v>
+      </c>
+      <c r="O30">
+        <v>0.09465220404058775</v>
+      </c>
+      <c r="P30">
+        <v>0.1025923347997507</v>
+      </c>
+      <c r="Q30">
+        <v>23.579935761865</v>
+      </c>
+      <c r="R30">
+        <v>141.47961457119</v>
+      </c>
+      <c r="S30">
+        <v>0.008837505570790377</v>
+      </c>
+      <c r="T30">
+        <v>0.006825996786157234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.7814465</v>
+      </c>
+      <c r="H31">
+        <v>15.562893</v>
+      </c>
+      <c r="I31">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J31">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8303465000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.660693</v>
+      </c>
+      <c r="O31">
+        <v>0.02593628733868785</v>
+      </c>
+      <c r="P31">
+        <v>0.01874134399780904</v>
+      </c>
+      <c r="Q31">
+        <v>6.461296866212251</v>
+      </c>
+      <c r="R31">
+        <v>25.845187464849</v>
+      </c>
+      <c r="S31">
+        <v>0.002421624368545983</v>
+      </c>
+      <c r="T31">
+        <v>0.001246958207423724</v>
       </c>
     </row>
   </sheetData>
